--- a/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2002 (G02).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2002 (G02).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,77 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hammer of Bogardan</t>
+          <t>('Hammer of Bogardan', ['{1}{R}{R}', 'Sorcery', 'Hammer of Bogardan deals 3 damage to any target.', '{2}{R}{R}{R}: Return Hammer of Bogardan from your graveyard to your hand. Activate this ability only during your upkeep.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{1}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Hammer of Bogardan deals 3 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>{2}{R}{R}{R}: Return Hammer of Bogardan from your graveyard to your hand. Activate this ability only during your upkeep.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Tradewind Rider</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>{3}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{T}, Tap two untapped creatures you control: Return target permanent to its owner’s hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>1/4</t>
+          <t>('Tradewind Rider', ['{3}{U}', 'Creature — Spirit', 'Flying', '{T}, Tap two untapped creatures you control: Return target permanent to its owner’s hand.', '1/4'])</t>
         </is>
       </c>
     </row>
